--- a/classfiers/chain/svm/chain-svm-sigmoid-results.xlsx
+++ b/classfiers/chain/svm/chain-svm-sigmoid-results.xlsx
@@ -476,7 +476,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4956521739130435</v>
+        <v>0.341991341991342</v>
       </c>
     </row>
     <row r="3">
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7768115942028986</v>
+        <v>0.9565217391304348</v>
       </c>
     </row>
     <row r="4">
@@ -514,7 +514,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6528384279475983</v>
+        <v>0.8855072463768116</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1033478893740903</v>
+        <v>0.4014492753623188</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3449781659388647</v>
+        <v>0.4420289855072463</v>
       </c>
     </row>
     <row r="7">
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4747256502752991</v>
+        <v>0.6054997176736305</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/chain/svm/chain-svm-sigmoid-results.xlsx
+++ b/classfiers/chain/svm/chain-svm-sigmoid-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.1842105263157895</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.2745098039215686</v>
       </c>
       <c r="E2" t="n">
-        <v>0.341991341991342</v>
+        <v>0.8646153846153846</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9565217391304348</v>
+        <v>0.6676923076923077</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.1428571428571429</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8855072463768116</v>
+        <v>0.9559335137224585</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4014492753623188</v>
+        <v>0.4620833333333333</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4420289855072463</v>
+        <v>0.9345833333333333</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.2468421052631579</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.1384615384615385</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.09559460147695442</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6054997176736305</v>
+        <v>0.7769815745393635</v>
       </c>
     </row>
   </sheetData>
